--- a/column_classes.xlsx
+++ b/column_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borisleung/Desktop/STA841Kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E989A302-4D03-FD41-8422-161B0E552088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D971154-4E7D-A244-97AA-9B7F24D7D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{69FD8C21-3E7A-6A40-B994-B53304C5A8C6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{69FD8C21-3E7A-6A40-B994-B53304C5A8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>house_q02</t>
   </si>
@@ -51,9 +51,6 @@
     <t>house_q04</t>
   </si>
   <si>
-    <t>house_q05</t>
-  </si>
-  <si>
     <t>house_q06</t>
   </si>
   <si>
@@ -105,204 +102,6 @@
     <t>house_q22</t>
   </si>
   <si>
-    <t>edu_01</t>
-  </si>
-  <si>
-    <t>edu_02</t>
-  </si>
-  <si>
-    <t>edu_03</t>
-  </si>
-  <si>
-    <t>edu_04</t>
-  </si>
-  <si>
-    <t>edu_05</t>
-  </si>
-  <si>
-    <t>edu_06</t>
-  </si>
-  <si>
-    <t>edu_07</t>
-  </si>
-  <si>
-    <t>edu_08</t>
-  </si>
-  <si>
-    <t>edu_09</t>
-  </si>
-  <si>
-    <t>edu_10</t>
-  </si>
-  <si>
-    <t>edu_11</t>
-  </si>
-  <si>
-    <t>edu_12</t>
-  </si>
-  <si>
-    <t>edu_13</t>
-  </si>
-  <si>
-    <t>edu_14</t>
-  </si>
-  <si>
-    <t>edu_15</t>
-  </si>
-  <si>
-    <t>edu_16</t>
-  </si>
-  <si>
-    <t>edu_17</t>
-  </si>
-  <si>
-    <t>edu_18</t>
-  </si>
-  <si>
-    <t>edu_19</t>
-  </si>
-  <si>
-    <t>edu_20</t>
-  </si>
-  <si>
-    <t>edu_21</t>
-  </si>
-  <si>
-    <t>edu_22</t>
-  </si>
-  <si>
-    <t>edu_23</t>
-  </si>
-  <si>
-    <t>edu_24</t>
-  </si>
-  <si>
-    <t>edu_25</t>
-  </si>
-  <si>
-    <t>edu_26</t>
-  </si>
-  <si>
-    <t>edu_27</t>
-  </si>
-  <si>
-    <t>edu_28</t>
-  </si>
-  <si>
-    <t>edu_29</t>
-  </si>
-  <si>
-    <t>edu_30</t>
-  </si>
-  <si>
-    <t>edu_31</t>
-  </si>
-  <si>
-    <t>edu_32</t>
-  </si>
-  <si>
-    <t>edu_33</t>
-  </si>
-  <si>
-    <t>edu_34</t>
-  </si>
-  <si>
-    <t>edu_35</t>
-  </si>
-  <si>
-    <t>edu_36</t>
-  </si>
-  <si>
-    <t>edu_37</t>
-  </si>
-  <si>
-    <t>edu_38</t>
-  </si>
-  <si>
-    <t>edu_39</t>
-  </si>
-  <si>
-    <t>edu_40</t>
-  </si>
-  <si>
-    <t>edu_41</t>
-  </si>
-  <si>
-    <t>edu_42</t>
-  </si>
-  <si>
-    <t>edu_43</t>
-  </si>
-  <si>
-    <t>edu_44</t>
-  </si>
-  <si>
-    <t>edu_45</t>
-  </si>
-  <si>
-    <t>edu_46</t>
-  </si>
-  <si>
-    <t>edu_47</t>
-  </si>
-  <si>
-    <t>edu_48</t>
-  </si>
-  <si>
-    <t>edu_49</t>
-  </si>
-  <si>
-    <t>edu_50</t>
-  </si>
-  <si>
-    <t>edu_51</t>
-  </si>
-  <si>
-    <t>edu_52</t>
-  </si>
-  <si>
-    <t>edu_53</t>
-  </si>
-  <si>
-    <t>edu_54</t>
-  </si>
-  <si>
-    <t>edu_55</t>
-  </si>
-  <si>
-    <t>edu_56</t>
-  </si>
-  <si>
-    <t>edu_57</t>
-  </si>
-  <si>
-    <t>edu_58</t>
-  </si>
-  <si>
-    <t>edu_59</t>
-  </si>
-  <si>
-    <t>edu_60</t>
-  </si>
-  <si>
-    <t>edu_61</t>
-  </si>
-  <si>
-    <t>edu_62</t>
-  </si>
-  <si>
-    <t>edu_63</t>
-  </si>
-  <si>
-    <t>edu_64</t>
-  </si>
-  <si>
-    <t>edu_65</t>
-  </si>
-  <si>
-    <t>edu_66</t>
-  </si>
-  <si>
     <t>binary</t>
   </si>
   <si>
@@ -321,15 +120,6 @@
     <t>any</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Also happens to have a 'DK' class that stands for "don't know"</t>
   </si>
   <si>
@@ -340,6 +130,219 @@
   </si>
   <si>
     <t>same as edu_62</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>edu_q01</t>
+  </si>
+  <si>
+    <t>edu_q02</t>
+  </si>
+  <si>
+    <t>edu_q03</t>
+  </si>
+  <si>
+    <t>edu_q04</t>
+  </si>
+  <si>
+    <t>edu_q05</t>
+  </si>
+  <si>
+    <t>edu_q06</t>
+  </si>
+  <si>
+    <t>edu_q07</t>
+  </si>
+  <si>
+    <t>edu_q08</t>
+  </si>
+  <si>
+    <t>edu_q09</t>
+  </si>
+  <si>
+    <t>edu_q10</t>
+  </si>
+  <si>
+    <t>edu_q11</t>
+  </si>
+  <si>
+    <t>edu_q12</t>
+  </si>
+  <si>
+    <t>edu_q13</t>
+  </si>
+  <si>
+    <t>edu_q14</t>
+  </si>
+  <si>
+    <t>edu_q15</t>
+  </si>
+  <si>
+    <t>edu_q16</t>
+  </si>
+  <si>
+    <t>edu_q17</t>
+  </si>
+  <si>
+    <t>edu_q18</t>
+  </si>
+  <si>
+    <t>edu_q19</t>
+  </si>
+  <si>
+    <t>edu_q20</t>
+  </si>
+  <si>
+    <t>edu_q21</t>
+  </si>
+  <si>
+    <t>edu_q22</t>
+  </si>
+  <si>
+    <t>edu_q23</t>
+  </si>
+  <si>
+    <t>edu_q24</t>
+  </si>
+  <si>
+    <t>edu_q25</t>
+  </si>
+  <si>
+    <t>edu_q26</t>
+  </si>
+  <si>
+    <t>edu_q27</t>
+  </si>
+  <si>
+    <t>edu_q28</t>
+  </si>
+  <si>
+    <t>edu_q29</t>
+  </si>
+  <si>
+    <t>edu_q30</t>
+  </si>
+  <si>
+    <t>edu_q31</t>
+  </si>
+  <si>
+    <t>edu_q32</t>
+  </si>
+  <si>
+    <t>edu_q33</t>
+  </si>
+  <si>
+    <t>edu_q34</t>
+  </si>
+  <si>
+    <t>edu_q35</t>
+  </si>
+  <si>
+    <t>edu_q36</t>
+  </si>
+  <si>
+    <t>edu_q37</t>
+  </si>
+  <si>
+    <t>edu_q38</t>
+  </si>
+  <si>
+    <t>edu_q39</t>
+  </si>
+  <si>
+    <t>edu_q40</t>
+  </si>
+  <si>
+    <t>edu_q41</t>
+  </si>
+  <si>
+    <t>edu_q42</t>
+  </si>
+  <si>
+    <t>edu_q43</t>
+  </si>
+  <si>
+    <t>edu_q44</t>
+  </si>
+  <si>
+    <t>edu_q45</t>
+  </si>
+  <si>
+    <t>edu_q46</t>
+  </si>
+  <si>
+    <t>edu_q47</t>
+  </si>
+  <si>
+    <t>edu_q48</t>
+  </si>
+  <si>
+    <t>edu_q49</t>
+  </si>
+  <si>
+    <t>edu_q50</t>
+  </si>
+  <si>
+    <t>edu_q51</t>
+  </si>
+  <si>
+    <t>edu_q52</t>
+  </si>
+  <si>
+    <t>edu_q53</t>
+  </si>
+  <si>
+    <t>edu_q54</t>
+  </si>
+  <si>
+    <t>edu_q55</t>
+  </si>
+  <si>
+    <t>edu_q56</t>
+  </si>
+  <si>
+    <t>edu_q57</t>
+  </si>
+  <si>
+    <t>edu_q58</t>
+  </si>
+  <si>
+    <t>edu_q59</t>
+  </si>
+  <si>
+    <t>edu_q60</t>
+  </si>
+  <si>
+    <t>edu_q61</t>
+  </si>
+  <si>
+    <t>edu_q62</t>
+  </si>
+  <si>
+    <t>edu_q63</t>
+  </si>
+  <si>
+    <t>edu_q64</t>
+  </si>
+  <si>
+    <t>edu_q65</t>
+  </si>
+  <si>
+    <t>edu_q66</t>
+  </si>
+  <si>
+    <t>house_q05y</t>
+  </si>
+  <si>
+    <t>house_q05m</t>
   </si>
 </sst>
 </file>
@@ -730,32 +733,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9FA765-5D57-AF45-A0B6-53B516D7E1EA}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,13 +783,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,691 +813,699 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
